--- a/Documentation/Scrum Artifacts/Sprint Backlog (Stage 1).xlsx
+++ b/Documentation/Scrum Artifacts/Sprint Backlog (Stage 1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\Documentation\Scrum Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>TODO List</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Character/enemy interaction</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,11 +155,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -159,6 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,133 +462,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10">
+        <f>SUM(B3:B10)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
